--- a/data/data_model_planner.xlsx
+++ b/data/data_model_planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7becb3257e745586/3_School/BootCamp_Springboard/Data_Engineering_Path/2_open_ended_capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1236" documentId="8_{A2C35B67-1238-490E-AAF9-6F079BE219E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6D01E38-B5DD-413C-A8E5-742ECC76B7EC}"/>
+  <xr:revisionPtr revIDLastSave="1304" documentId="8_{A2C35B67-1238-490E-AAF9-6F079BE219E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D220C87-F822-4C9D-A224-664AEC1D91B9}"/>
   <bookViews>
-    <workbookView xWindow="6562" yWindow="3278" windowWidth="18225" windowHeight="11422" activeTab="1" xr2:uid="{6FAE3B8B-F522-441F-A816-43FE04CF5C89}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="2" xr2:uid="{6FAE3B8B-F522-441F-A816-43FE04CF5C89}"/>
   </bookViews>
   <sheets>
     <sheet name="bus_matrix" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="83">
   <si>
     <t>dispatching_base_num</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>day_number_in_month</t>
+  </si>
+  <si>
+    <t>hvfhv_licenses</t>
+  </si>
+  <si>
+    <t>hvfhv_license_num</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,4277 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="896">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="10"/>
@@ -895,8 +5171,8 @@
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>355645</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>527095</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>146369</xdr:rowOff>
     </xdr:to>
@@ -989,18 +5265,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alfred Hull" refreshedDate="44180.490191203702" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="72" xr:uid="{D0E5531C-5D90-4CA2-AAC5-F777DD93A378}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alfred Hull" refreshedDate="44184.525098148151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="70" xr:uid="{D0E5531C-5D90-4CA2-AAC5-F777DD93A378}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="1_data_catalog"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="table" numFmtId="0">
-      <sharedItems containsBlank="1" count="20">
+      <sharedItems containsBlank="1" count="21">
         <s v="dispatch_base"/>
         <s v="fhv_tripdata"/>
         <s v="fhvhv_tripdata"/>
         <s v="green_tripdata"/>
-        <s v="hvfhs_licenses"/>
+        <s v="hvfhv_licenses"/>
         <s v="taxi+_zone_lookup"/>
         <s v="yellow_tripdata"/>
         <s v="sharedride_flag"/>
@@ -1014,12 +5290,13 @@
         <s v="sr_flag" u="1"/>
         <s v="junction_fhvhv_tripdata" u="1"/>
         <s v="junction_green_tripdata" u="1"/>
+        <s v="hvfhs_licenses" u="1"/>
         <s v="fhv_tripdata_junction" u="1"/>
         <s v="fhvhv_tripdata_junction" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="fields" numFmtId="0">
-      <sharedItems containsBlank="1" count="42">
+      <sharedItems containsBlank="1" count="49">
         <s v="dispatching_base_num"/>
         <s v="SR_Flag"/>
         <s v="DOLocationID"/>
@@ -1045,6 +5322,7 @@
         <s v="congestion_surcharge"/>
         <s v="payment_type"/>
         <s v="VendorID"/>
+        <s v="hvfhv_license_num"/>
         <s v="service_zone"/>
         <s v="Zone"/>
         <s v="Borough"/>
@@ -1052,16 +5330,22 @@
         <s v="tpep_pickup_datetime"/>
         <s v="tpep_dropoff_datetime"/>
         <s v="time_id"/>
-        <s v="hour"/>
-        <s v="date_id"/>
         <s v="date"/>
-        <s v="day_description"/>
-        <s v="num_day"/>
-        <s v="month_description"/>
-        <s v="year"/>
-        <s v="week"/>
-        <s v="week_description"/>
+        <s v="day_of_week"/>
+        <s v="day_number_in_epoch"/>
+        <s v="week_number_in_epoch"/>
+        <s v="month_number_in epoch"/>
+        <s v="day_number_in_week"/>
+        <s v="day_number_in_month"/>
         <m/>
+        <s v="day_description" u="1"/>
+        <s v="week" u="1"/>
+        <s v="month_description" u="1"/>
+        <s v="year" u="1"/>
+        <s v="num_day" u="1"/>
+        <s v="date_id" u="1"/>
+        <s v="week_description" u="1"/>
+        <s v="hour" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="keys" numFmtId="0">
@@ -1102,7 +5386,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="70">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1445,7 +5729,7 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="6"/>
+    <x v="25"/>
     <x v="0"/>
     <s v="HV0003"/>
     <x v="0"/>
@@ -1455,7 +5739,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="25"/>
+    <x v="26"/>
     <x v="2"/>
     <s v="EWR"/>
     <x v="0"/>
@@ -1465,7 +5749,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="26"/>
+    <x v="27"/>
     <x v="2"/>
     <s v="Newark Airport"/>
     <x v="0"/>
@@ -1475,7 +5759,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="27"/>
+    <x v="28"/>
     <x v="2"/>
     <s v="EWR"/>
     <x v="0"/>
@@ -1485,7 +5769,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="28"/>
+    <x v="29"/>
     <x v="0"/>
     <n v="1"/>
     <x v="0"/>
@@ -1585,7 +5869,7 @@
   </r>
   <r>
     <x v="6"/>
-    <x v="29"/>
+    <x v="30"/>
     <x v="1"/>
     <n v="43831.019444444442"/>
     <x v="1"/>
@@ -1665,7 +5949,7 @@
   </r>
   <r>
     <x v="6"/>
-    <x v="30"/>
+    <x v="31"/>
     <x v="1"/>
     <n v="43831.022916666669"/>
     <x v="1"/>
@@ -1715,7 +5999,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="31"/>
+    <x v="32"/>
     <x v="0"/>
     <m/>
     <x v="0"/>
@@ -1725,27 +6009,7 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="32"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <s v="time_dim"/>
-    <s v="hour"/>
-    <s v="--"/>
-  </r>
-  <r>
-    <x v="11"/>
     <x v="33"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <s v="time_dim"/>
-    <s v="date_id"/>
-    <s v="PK"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="34"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
@@ -1755,12 +6019,22 @@
   </r>
   <r>
     <x v="11"/>
+    <x v="34"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="time_dim"/>
+    <s v="day_of_week"/>
+    <s v="--"/>
+  </r>
+  <r>
+    <x v="11"/>
     <x v="35"/>
     <x v="2"/>
     <m/>
     <x v="0"/>
     <s v="time_dim"/>
-    <s v="day_description"/>
+    <s v="day_number_in_epoch"/>
     <s v="--"/>
   </r>
   <r>
@@ -1770,7 +6044,7 @@
     <m/>
     <x v="0"/>
     <s v="time_dim"/>
-    <s v="num_day"/>
+    <s v="week_number_in_epoch"/>
     <s v="--"/>
   </r>
   <r>
@@ -1780,7 +6054,7 @@
     <m/>
     <x v="0"/>
     <s v="time_dim"/>
-    <s v="month_description"/>
+    <s v="month_number_in epoch"/>
     <s v="--"/>
   </r>
   <r>
@@ -1790,7 +6064,7 @@
     <m/>
     <x v="0"/>
     <s v="time_dim"/>
-    <s v="year"/>
+    <s v="day_number_in_week"/>
     <s v="--"/>
   </r>
   <r>
@@ -1800,22 +6074,12 @@
     <m/>
     <x v="0"/>
     <s v="time_dim"/>
-    <s v="week"/>
-    <s v="--"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="40"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <s v="time_dim"/>
-    <s v="week_description"/>
+    <s v="day_number_in_month"/>
     <s v="--"/>
   </r>
   <r>
     <x v="12"/>
-    <x v="41"/>
+    <x v="40"/>
     <x v="3"/>
     <m/>
     <x v="2"/>
@@ -1827,16 +6091,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EBC4EC-550D-4AD2-B0DB-A8E6E702B3A5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C16:C24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EBC4EC-550D-4AD2-B0DB-A8E6E702B3A5}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C16:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
-      <items count="21">
+      <items count="22">
         <item sd="0" x="0"/>
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" x="3"/>
         <item sd="0" m="1" x="18"/>
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
         <item sd="0" x="5"/>
         <item sd="0" x="6"/>
         <item h="1" x="12"/>
@@ -1852,12 +6116,13 @@
         <item h="1" x="7"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="43">
-        <item x="27"/>
+      <items count="50">
+        <item x="28"/>
         <item x="22"/>
         <item x="0"/>
         <item x="2"/>
@@ -1867,7 +6132,7 @@
         <item x="9"/>
         <item x="6"/>
         <item x="10"/>
-        <item x="28"/>
+        <item x="29"/>
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
@@ -1876,29 +6141,36 @@
         <item x="5"/>
         <item x="4"/>
         <item x="14"/>
-        <item x="25"/>
+        <item x="26"/>
         <item x="1"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
+        <item x="31"/>
         <item x="30"/>
-        <item x="29"/>
         <item x="19"/>
         <item x="20"/>
         <item x="24"/>
-        <item x="26"/>
-        <item x="41"/>
-        <item x="31"/>
+        <item x="27"/>
+        <item x="40"/>
         <item x="32"/>
+        <item m="1" x="48"/>
+        <item m="1" x="46"/>
         <item x="33"/>
+        <item m="1" x="41"/>
+        <item m="1" x="45"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="42"/>
+        <item m="1" x="47"/>
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
-        <item x="40"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1931,15 +6203,12 @@
     <field x="2"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i r="1">
       <x v="5"/>
@@ -1961,13 +6230,13 @@
     <i/>
   </colItems>
   <formats count="28">
-    <format dxfId="27">
+    <format dxfId="881">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="880">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="879">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="3">
@@ -1978,10 +6247,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="878">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="877">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="3">
@@ -1995,7 +6264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="876">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -2008,7 +6277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="875">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -2021,7 +6290,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="874">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2036,7 +6305,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="873">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2051,7 +6320,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="872">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2067,7 +6336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="871">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2084,7 +6353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="870">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2101,7 +6370,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="869">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2117,7 +6386,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="868">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2133,7 +6402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="867">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2151,7 +6420,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="866">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2169,7 +6438,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="865">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2187,7 +6456,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="864">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2207,7 +6476,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="863">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2225,7 +6494,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="862">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2246,7 +6515,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="861">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2278,7 +6547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="860">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2296,7 +6565,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="859">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2317,7 +6586,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="858">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2347,7 +6616,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="857">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2368,7 +6637,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="856">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2387,7 +6656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="855">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2409,7 +6678,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="854">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -2442,16 +6711,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22F06CB-A238-4D66-A7CC-240B62DA1572}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A16:A35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22F06CB-A238-4D66-A7CC-240B62DA1572}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A16:A47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
-      <items count="21">
+      <items count="22">
         <item sd="0" x="0"/>
+        <item m="1" x="19"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" x="3"/>
         <item m="1" x="18"/>
-        <item sd="0" m="1" x="19"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
         <item sd="0" x="5"/>
         <item sd="0" x="6"/>
         <item x="12"/>
@@ -2465,14 +6734,15 @@
         <item sd="0" x="10"/>
         <item sd="0" x="11"/>
         <item sd="0" x="7"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="43">
-        <item x="27"/>
+      <items count="50">
+        <item x="28"/>
         <item x="22"/>
         <item x="0"/>
         <item x="2"/>
@@ -2482,7 +6752,7 @@
         <item x="9"/>
         <item x="6"/>
         <item x="10"/>
-        <item x="28"/>
+        <item x="29"/>
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
@@ -2491,29 +6761,36 @@
         <item x="5"/>
         <item x="4"/>
         <item x="14"/>
-        <item x="25"/>
+        <item x="26"/>
         <item x="1"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
+        <item x="31"/>
         <item x="30"/>
-        <item x="29"/>
         <item x="19"/>
         <item x="20"/>
         <item x="24"/>
-        <item x="26"/>
-        <item x="41"/>
-        <item x="31"/>
+        <item x="27"/>
+        <item x="40"/>
         <item x="32"/>
+        <item m="1" x="48"/>
+        <item m="1" x="46"/>
         <item x="33"/>
+        <item m="1" x="41"/>
+        <item m="1" x="45"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="42"/>
+        <item m="1" x="47"/>
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
-        <item x="40"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2532,7 +6809,7 @@
         <item x="0"/>
         <item x="1"/>
         <item m="1" x="3"/>
-        <item x="2"/>
+        <item sd="0" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2546,15 +6823,12 @@
     <field x="2"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i r="1">
       <x v="5"/>
@@ -2574,6 +6848,9 @@
     <i r="1">
       <x v="17"/>
     </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -2586,20 +6863,56 @@
     <i r="1">
       <x v="18"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="16"/>
+    </i>
+    <i r="3">
+      <x v="17"/>
+    </i>
+    <i r="3">
+      <x v="20"/>
+    </i>
     <i r="1">
       <x v="19"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="8"/>
+    </i>
+    <i r="3">
+      <x v="16"/>
+    </i>
+    <i r="3">
+      <x v="17"/>
+    </i>
+    <i r="3">
+      <x v="20"/>
+    </i>
     <i>
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="31"/>
     </i>
     <i t="grand">
       <x/>
@@ -2609,13 +6922,13 @@
     <i/>
   </colItems>
   <formats count="14">
-    <format dxfId="41">
+    <format dxfId="895">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="894">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="893">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="3">
@@ -2626,10 +6939,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="892">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="891">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="3">
@@ -2643,7 +6956,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="890">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -2656,7 +6969,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="889">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -2669,7 +6982,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="888">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2684,7 +6997,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="887">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2699,7 +7012,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="886">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2715,7 +7028,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="885">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2732,7 +7045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="884">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2749,7 +7062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="883">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2765,7 +7078,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="882">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -3338,11 +7651,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2088174-295F-4FE5-8327-EA1891322AE8}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63:H70"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4261,10 +8574,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>47</v>
@@ -5137,15 +9450,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC4472-F4D9-449D-BCFE-57FF1B6C1123}">
-  <dimension ref="A16:C103"/>
+  <dimension ref="A16:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.06640625" style="8"/>
     <col min="3" max="3" width="18.53125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.06640625" style="8"/>
@@ -5177,55 +9490,53 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C24"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C25"/>
     </row>
@@ -5252,150 +9563,225 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="9" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="9" t="s">
+      <c r="C46" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C47" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C48" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74"/>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
